--- a/DB-Skript/Datenbank-Aufbau (Layout).xlsx
+++ b/DB-Skript/Datenbank-Aufbau (Layout).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Syntax</t>
   </si>
   <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>toll</t>
   </si>
   <si>
     <t>boolean</t>
@@ -110,58 +110,28 @@
     <t>&gt; RoutingMap</t>
   </si>
   <si>
+    <t>routingID = RoutingMap.ID</t>
+  </si>
+  <si>
+    <t>RoutingMap.ID</t>
+  </si>
+  <si>
     <t>http://de.wikipedia.org/wiki/Strassensystem_in_der_Schweiz_und_in_Liechtenstein</t>
   </si>
   <si>
     <t>varchar(50)</t>
   </si>
   <si>
-    <t>&gt; MapImage</t>
-  </si>
-  <si>
-    <t>MapImageID = MapImage.ID</t>
-  </si>
-  <si>
-    <t>MapImage.ID</t>
-  </si>
-  <si>
-    <t>WayID = Way.ID</t>
-  </si>
-  <si>
-    <t>Way.ID</t>
-  </si>
-  <si>
-    <t>StartPointX</t>
-  </si>
-  <si>
-    <t>StartPointY</t>
-  </si>
-  <si>
-    <t>StartPointName</t>
-  </si>
-  <si>
-    <t>EndPointX</t>
-  </si>
-  <si>
-    <t>EndPointY</t>
-  </si>
-  <si>
-    <t>EndPointName</t>
-  </si>
-  <si>
     <t>Distance</t>
   </si>
   <si>
-    <t>Toll</t>
-  </si>
-  <si>
-    <t>DistanceUnitId = DistanceUnit.Id</t>
-  </si>
-  <si>
-    <t>DistanceUnit.Id</t>
-  </si>
-  <si>
-    <t>ClassCategoryId = ClassCategory.ID</t>
+    <t>&gt; WayPoint</t>
+  </si>
+  <si>
+    <t>Classification = ClassCategory.ID</t>
+  </si>
+  <si>
+    <t>WayPoint.ID</t>
   </si>
   <si>
     <t>DistanceUnit (Auswahltabelle)</t>
@@ -173,6 +143,45 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>DistanceUnitId = DistanceUnit.Id</t>
+  </si>
+  <si>
+    <t>DistanceUnit.Id</t>
+  </si>
+  <si>
+    <t>MapImageID = MapImage.ID</t>
+  </si>
+  <si>
+    <t>MapImage.ID</t>
+  </si>
+  <si>
+    <t>WayID = Way.ID</t>
+  </si>
+  <si>
+    <t>Way.ID</t>
+  </si>
+  <si>
+    <t>&gt; MapImage</t>
+  </si>
+  <si>
+    <t>varchar(25)</t>
+  </si>
+  <si>
+    <t>StartPoint = WayPointID</t>
+  </si>
+  <si>
+    <t>EndPoint = WayPointID</t>
+  </si>
+  <si>
+    <t>XAxis</t>
+  </si>
+  <si>
+    <t>YAxis</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -332,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,19 +553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +747,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -808,6 +823,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -1162,15 +1183,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1183,7 +1204,7 @@
     <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1194,23 +1215,23 @@
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="19"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -1222,87 +1243,93 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1310,19 +1337,19 @@
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1344,240 +1371,271 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>11</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="24" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+      <c r="A24" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="20"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F35" s="20"/>
-    </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="J38" s="19"/>
-    </row>
-    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="F37" s="20"/>
+      <c r="G37" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="20"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F41" s="20"/>
-      <c r="G41" s="22"/>
+      <c r="G41" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G34" r:id="rId1"/>
+    <hyperlink ref="G37" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>

--- a/DB-Skript/Datenbank-Aufbau (Layout).xlsx
+++ b/DB-Skript/Datenbank-Aufbau (Layout).xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="1515" windowWidth="28800" windowHeight="15735"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="18480" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Datenbank-Aufbau (Layout)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1186,7 +1187,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
